--- a/biology/Botanique/Œillet_de_France/Œillet_de_France.xlsx
+++ b/biology/Botanique/Œillet_de_France/Œillet_de_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C5%92illet_de_France</t>
+          <t>Œillet_de_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dianthus hyssopifolius subsp. gallicus
 L'œillet de France, Dianthus hyssopifolius subsp. gallicus, encore appelé œillet des dunes ou œillet des sables, est une sous-espèce de plantes herbacées vivaces de la famille des Caryophyllaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C5%92illet_de_France</t>
+          <t>Œillet_de_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante plutôt basse, en touffes lâches, à feuilles vert-grisâtre, à fleurs roses ou mauves, à pétales dentés. C'est une plante très voisine de l'œillet de Montpellier, autre sous-espèce de Dianthus hyssopifolius.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C5%92illet_de_France</t>
+          <t>Œillet_de_France</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">organes reproducteurs:
 Type d'inflorescence: cyme bipare
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C5%92illet_de_France</t>
+          <t>Œillet_de_France</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dianthus gallicus Pers.</t>
         </is>
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C5%92illet_de_France</t>
+          <t>Œillet_de_France</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,7 +633,9 @@
           <t>Remarques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains auteurs acceptent encore le nom scientifique de Dianthus gallicus. Ils considèrent dans ce cas que cet œillet constitue une espèce à part.
 Cet œillet est rarement cultivé dans des jardins de collection.
